--- a/mySystem/mySystem/xls/LDPEBag/7 SOP-MFG-304-R03A 1#制袋机运行记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/7 SOP-MFG-304-R03A 1#制袋机运行记录.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\LDPEBag\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="14895" windowHeight="7710"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Running Record of PEF Bag Converting Machine</t>
   </si>
@@ -566,14 +571,22 @@
       </rPr>
       <t>制袋机运行记录</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境湿度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,7 +679,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -819,13 +832,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,6 +883,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -853,36 +925,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -891,6 +933,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,6 +943,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -944,7 +997,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,9 +1029,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1010,6 +1064,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1185,22 +1240,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
-    <col min="2" max="7" width="14.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="3" width="6.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1210,166 +1271,198 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="57" customHeight="1">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="H7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="I7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="J7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="33" customHeight="1">
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1379,12 +1472,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1392,12 +1485,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/LDPEBag/7 SOP-MFG-304-R03A 1#制袋机运行记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/7 SOP-MFG-304-R03A 1#制袋机运行记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Running Record of PEF Bag Converting Machine</t>
   </si>
@@ -423,18 +423,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>检查人</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>注：</t>
     </r>
     <r>
@@ -579,6 +567,23 @@
   </si>
   <si>
     <t>环境湿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查人</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +684,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -858,13 +863,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +934,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -934,8 +955,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1257,11 +1278,12 @@
     <col min="7" max="7" width="11.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="10" max="10" width="9.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1273,73 +1295,77 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+    <row r="2" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>7</v>
@@ -1359,11 +1385,14 @@
       <c r="I7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>13</v>
+      <c r="J7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -1373,9 +1402,10 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1385,9 +1415,10 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -1397,9 +1428,10 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1409,9 +1441,10 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1421,9 +1454,10 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1433,36 +1467,38 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+    <row r="14" spans="1:11" s="5" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPEBag/7 SOP-MFG-304-R03A 1#制袋机运行记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/7 SOP-MFG-304-R03A 1#制袋机运行记录.xlsx
@@ -50,17 +50,207 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热封刀温度
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃）
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>300-330</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>底座温度
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃）
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>40-60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制袋速度
+（个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟）
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30--50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切刀工作
+是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张力控制
+是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膜材运转
+是否平整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填写方式：设备运行正常</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">              </t>
+      <t>“</t>
     </r>
     <r>
       <rPr>
@@ -70,17 +260,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t>”</t>
     </r>
     <r>
       <rPr>
@@ -90,17 +279,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <t>，设备异常写明原因。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复核人：</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">                                        </t>
     </r>
     <r>
       <rPr>
@@ -110,7 +310,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>日</t>
+      <t>年</t>
     </r>
     <r>
       <rPr>
@@ -119,7 +319,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">            </t>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
@@ -129,7 +329,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>环境温度</t>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -138,398 +338,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>环境湿度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> % </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>间</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>热封刀温度
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃）
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>300-330</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>底座温度
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃）
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>40-60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋速度
-（个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分钟）
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>30--50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切刀工作
-是否正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张力控制
-是否正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膜材运转
-是否平整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写方式：设备运行正常</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>√</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，设备异常写明原因。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复核人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -584,6 +392,14 @@
       </rPr>
       <t>检查人</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,13 +471,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -904,13 +713,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,17 +731,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -954,9 +766,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,28 +1071,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="3" width="6.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="12.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="4" width="6.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1296,209 +1106,223 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="G7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>14</v>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A14:L14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPEBag/7 SOP-MFG-304-R03A 1#制袋机运行记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/7 SOP-MFG-304-R03A 1#制袋机运行记录.xlsx
@@ -16,12 +16,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$7:$7</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Running Record of PEF Bag Converting Machine</t>
   </si>
@@ -33,178 +36,6 @@
   </si>
   <si>
     <t>SOP-MFG-304-R03A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>颇尔奥星包装科技（北京）有限责任公司</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>热封刀温度
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃）
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>300-330</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>底座温度
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃）
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>40-60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋速度
-（个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分钟）
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>30--50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -223,191 +54,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>环境温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境湿度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颇尔奥星包装科技（北京）有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#制袋机运行记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热封刀温度
+（ ℃）
+（300-330）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底座温度
+（ ℃）
+（40-60）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制袋速度
+（个/分钟）
+（30--50）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>注：</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>填写方式：设备运行正常</t>
+      <t>填写方式：设备运行正常“√”，设备异常写明原因。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>√</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，设备异常写明原因。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复核人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制袋机运行记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境湿度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查人</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,36 +140,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -466,22 +154,38 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="新宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="新宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -691,72 +395,72 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -766,6 +470,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,250 +778,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A5" sqref="A5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="4" width="6.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="4" width="6.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2" t="s">
-        <v>3</v>
+      <c r="I7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
     </row>
-    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +972,7 @@
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
